--- a/src/test/resources/demo/cellDataDemo.xlsx
+++ b/src/test/resources/demo/cellDataDemo.xlsx
@@ -1,17 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roane/workspace/other/easyexcel/src/test/resources/demo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4C398-000A-3849-9486-34A50FDA5724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Likai</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{FD77E45B-3F59-6541-A140-4B9AF7F2FEA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>字符串</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>的批注</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{270B69AB-51D1-444F-A47A-8DB42910A09C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2020.1.1:1:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{56705114-5E47-E14B-AE05-A0AACAA6C10C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>壹</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,14 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,345 +177,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -454,251 +205,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,61 +222,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1054,21 +519,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1090,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1105,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>43832.0423726852</v>
+        <v>43832.042372685202</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1120,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.0423726852</v>
+        <v>43833.042372685202</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1135,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>43834.0423726852</v>
+        <v>43834.042372685202</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1150,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>43835.0423726852</v>
+        <v>43835.042372685202</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1165,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>43836.0423726852</v>
+        <v>43836.042372685202</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1180,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>43837.0423726852</v>
+        <v>43837.042372685202</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1195,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>43838.0423726852</v>
+        <v>43838.042372685202</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1210,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>43839.0423726852</v>
+        <v>43839.042372685202</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1225,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>43840.0423726852</v>
+        <v>43840.042372685202</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1236,22 +701,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1269,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2">
-        <v>43831.0423726852</v>
+        <v>43831.042372685202</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1280,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>43832.0423726852</v>
+        <v>43832.042372685202</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1291,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.0423726852</v>
+        <v>43833.042372685202</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1302,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>43834.0423726852</v>
+        <v>43834.042372685202</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1313,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>43835.0423726852</v>
+        <v>43835.042372685202</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1324,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>43836.0423726852</v>
+        <v>43836.042372685202</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1335,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>43837.0423726852</v>
+        <v>43837.042372685202</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1346,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>43838.0423726852</v>
+        <v>43838.042372685202</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1357,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>43839.0423726852</v>
+        <v>43839.042372685202</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1368,14 +833,14 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>43840.0423726852</v>
+        <v>43840.042372685202</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>